--- a/example_data/EPA/label_corrected/042750-00285-20141223_2018-12-08_111243.xlsx
+++ b/example_data/EPA/label_corrected/042750-00285-20141223_2018-12-08_111243.xlsx
@@ -797,7 +797,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -840,7 +840,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -892,7 +892,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G250" t="inlineStr"/>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G253" t="inlineStr"/>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G255" t="inlineStr"/>
